--- a/Code/Results/Cases/Case_5_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_116/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003477927936818</v>
+        <v>1.050419571049633</v>
       </c>
       <c r="D2">
-        <v>1.018798224931276</v>
+        <v>1.047334886536162</v>
       </c>
       <c r="E2">
-        <v>1.01708963056873</v>
+        <v>1.05661466016842</v>
       </c>
       <c r="F2">
-        <v>1.023706123554449</v>
+        <v>1.065336006971663</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043012614722708</v>
+        <v>1.038470868084027</v>
       </c>
       <c r="J2">
-        <v>1.025555110068862</v>
+        <v>1.055452823498969</v>
       </c>
       <c r="K2">
-        <v>1.030001738265852</v>
+        <v>1.050097812781029</v>
       </c>
       <c r="L2">
-        <v>1.028315905133702</v>
+        <v>1.059351886840596</v>
       </c>
       <c r="M2">
-        <v>1.034844785524144</v>
+        <v>1.068049522327009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010770383710524</v>
+        <v>1.051887087344584</v>
       </c>
       <c r="D3">
-        <v>1.024044032859235</v>
+        <v>1.048394878751425</v>
       </c>
       <c r="E3">
-        <v>1.023342263800902</v>
+        <v>1.057921602330407</v>
       </c>
       <c r="F3">
-        <v>1.030346155944412</v>
+        <v>1.06673091686561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04495917111284</v>
+        <v>1.038778445179996</v>
       </c>
       <c r="J3">
-        <v>1.030971682124525</v>
+        <v>1.056567485010936</v>
       </c>
       <c r="K3">
-        <v>1.034378238198993</v>
+        <v>1.05096898477225</v>
       </c>
       <c r="L3">
-        <v>1.033684939571611</v>
+        <v>1.06047124802195</v>
       </c>
       <c r="M3">
-        <v>1.040604934857427</v>
+        <v>1.069258363041623</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0153532379681</v>
+        <v>1.052835602104131</v>
       </c>
       <c r="D4">
-        <v>1.027342979743573</v>
+        <v>1.049079622230744</v>
       </c>
       <c r="E4">
-        <v>1.027278035818645</v>
+        <v>1.05876656877249</v>
       </c>
       <c r="F4">
-        <v>1.034526395174578</v>
+        <v>1.067632869009195</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046170234565229</v>
+        <v>1.038975630911724</v>
       </c>
       <c r="J4">
-        <v>1.034372196398185</v>
+        <v>1.057287264884252</v>
       </c>
       <c r="K4">
-        <v>1.037122229981795</v>
+        <v>1.051530953772042</v>
       </c>
       <c r="L4">
-        <v>1.037058019333253</v>
+        <v>1.061194290505423</v>
       </c>
       <c r="M4">
-        <v>1.044225237109088</v>
+        <v>1.07003938436981</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01724911360933</v>
+        <v>1.053234108588681</v>
       </c>
       <c r="D5">
-        <v>1.028708145239617</v>
+        <v>1.049367218352626</v>
       </c>
       <c r="E5">
-        <v>1.028907661074497</v>
+        <v>1.059121626713343</v>
       </c>
       <c r="F5">
-        <v>1.036257395770374</v>
+        <v>1.068011899566101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046668238553617</v>
+        <v>1.03905808930625</v>
       </c>
       <c r="J5">
-        <v>1.035778050147805</v>
+        <v>1.057589510242754</v>
       </c>
       <c r="K5">
-        <v>1.038255774511318</v>
+        <v>1.051766792862529</v>
       </c>
       <c r="L5">
-        <v>1.038453101614515</v>
+        <v>1.061497960383681</v>
       </c>
       <c r="M5">
-        <v>1.045722928333899</v>
+        <v>1.070367447874068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017565684645971</v>
+        <v>1.053301005151543</v>
       </c>
       <c r="D6">
-        <v>1.028936120759782</v>
+        <v>1.049415491271675</v>
       </c>
       <c r="E6">
-        <v>1.029179856124881</v>
+        <v>1.059181232906591</v>
       </c>
       <c r="F6">
-        <v>1.036546532571579</v>
+        <v>1.068075531805007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046751216401517</v>
+        <v>1.039071908759386</v>
       </c>
       <c r="J6">
-        <v>1.03601274297335</v>
+        <v>1.057640238165003</v>
       </c>
       <c r="K6">
-        <v>1.038444955047949</v>
+        <v>1.05180636717928</v>
       </c>
       <c r="L6">
-        <v>1.03868602961282</v>
+        <v>1.06154893058831</v>
       </c>
       <c r="M6">
-        <v>1.045973009387145</v>
+        <v>1.070422515016368</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015378689371284</v>
+        <v>1.052840927938493</v>
       </c>
       <c r="D7">
-        <v>1.027361305025803</v>
+        <v>1.049083466161004</v>
       </c>
       <c r="E7">
-        <v>1.027299907328231</v>
+        <v>1.058771313720415</v>
       </c>
       <c r="F7">
-        <v>1.034549626652236</v>
+        <v>1.067637934217777</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046176932032146</v>
+        <v>1.038976734446124</v>
       </c>
       <c r="J7">
-        <v>1.034391073100356</v>
+        <v>1.057291304871773</v>
       </c>
       <c r="K7">
-        <v>1.037137453881281</v>
+        <v>1.05153410668299</v>
       </c>
       <c r="L7">
-        <v>1.037076749155215</v>
+        <v>1.06119834931968</v>
       </c>
       <c r="M7">
-        <v>1.044245343097664</v>
+        <v>1.070043769056651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00597168710163</v>
+        <v>1.050915749588486</v>
       </c>
       <c r="D8">
-        <v>1.020591545820464</v>
+        <v>1.047693354483374</v>
       </c>
       <c r="E8">
-        <v>1.019226403519329</v>
+        <v>1.057056497718347</v>
       </c>
       <c r="F8">
-        <v>1.025975159485449</v>
+        <v>1.065807560436635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043680804655788</v>
+        <v>1.038575196424498</v>
       </c>
       <c r="J8">
-        <v>1.02740807026538</v>
+        <v>1.055829837794783</v>
       </c>
       <c r="K8">
-        <v>1.031499632459912</v>
+        <v>1.050392591188771</v>
       </c>
       <c r="L8">
-        <v>1.030152089625735</v>
+        <v>1.059730443444195</v>
       </c>
       <c r="M8">
-        <v>1.036814410543814</v>
+        <v>1.068458302633665</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9882671277845611</v>
+        <v>1.047514894375465</v>
       </c>
       <c r="D9">
-        <v>1.007875112802381</v>
+        <v>1.045234895650314</v>
       </c>
       <c r="E9">
-        <v>1.004088036689611</v>
+        <v>1.054029107566314</v>
       </c>
       <c r="F9">
-        <v>1.009902190735151</v>
+        <v>1.062577023048455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038887097831614</v>
+        <v>1.037853503502916</v>
       </c>
       <c r="J9">
-        <v>1.014241117475774</v>
+        <v>1.05324300936773</v>
       </c>
       <c r="K9">
-        <v>1.020841700975016</v>
+        <v>1.048367639406063</v>
       </c>
       <c r="L9">
-        <v>1.017115134727923</v>
+        <v>1.057133972381478</v>
       </c>
       <c r="M9">
-        <v>1.022836629050691</v>
+        <v>1.065655272752547</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.975567718991624</v>
+        <v>1.04524158976055</v>
       </c>
       <c r="D10">
-        <v>0.998780156233969</v>
+        <v>1.043589716594611</v>
       </c>
       <c r="E10">
-        <v>0.9932753623135976</v>
+        <v>1.052006745230569</v>
       </c>
       <c r="F10">
-        <v>0.9984248463654862</v>
+        <v>1.060419530944579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035388238772269</v>
+        <v>1.037362787392534</v>
       </c>
       <c r="J10">
-        <v>1.004785392961987</v>
+        <v>1.051510423445233</v>
       </c>
       <c r="K10">
-        <v>1.013171470320794</v>
+        <v>1.047008415385327</v>
       </c>
       <c r="L10">
-        <v>1.007767103004879</v>
+        <v>1.055396111794411</v>
       </c>
       <c r="M10">
-        <v>1.012822599056753</v>
+        <v>1.063780091702193</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9698200921292371</v>
+        <v>1.04425569726348</v>
       </c>
       <c r="D11">
-        <v>0.994672629339637</v>
+        <v>1.042875814162632</v>
       </c>
       <c r="E11">
-        <v>0.9883945270428194</v>
+        <v>1.051130001098873</v>
       </c>
       <c r="F11">
-        <v>0.9932445774795186</v>
+        <v>1.059484340965872</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033791596381656</v>
+        <v>1.037148008293797</v>
       </c>
       <c r="J11">
-        <v>1.000504611861565</v>
+        <v>1.050758226867596</v>
       </c>
       <c r="K11">
-        <v>1.00969571626555</v>
+        <v>1.046417613701292</v>
       </c>
       <c r="L11">
-        <v>1.003538675263343</v>
+        <v>1.054641906787763</v>
       </c>
       <c r="M11">
-        <v>1.008295025633188</v>
+        <v>1.062966513118142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9676442543724023</v>
+        <v>1.043889254436922</v>
       </c>
       <c r="D12">
-        <v>0.9931192247699349</v>
+        <v>1.042610404919305</v>
       </c>
       <c r="E12">
-        <v>0.9865489460292144</v>
+        <v>1.050804176093073</v>
       </c>
       <c r="F12">
-        <v>0.9912858542563784</v>
+        <v>1.059136816112562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033185317757392</v>
+        <v>1.037067883107864</v>
       </c>
       <c r="J12">
-        <v>0.9988840224024818</v>
+        <v>1.050478525326045</v>
       </c>
       <c r="K12">
-        <v>1.008379447610709</v>
+        <v>1.046197821646438</v>
       </c>
       <c r="L12">
-        <v>1.001938465307765</v>
+        <v>1.05436150078925</v>
       </c>
       <c r="M12">
-        <v>1.006581929718332</v>
+        <v>1.06266406589046</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9681128924368023</v>
+        <v>1.043967868580332</v>
       </c>
       <c r="D13">
-        <v>0.9934537273081124</v>
+        <v>1.04266734676674</v>
       </c>
       <c r="E13">
-        <v>0.9869463534809217</v>
+        <v>1.050874074140893</v>
       </c>
       <c r="F13">
-        <v>0.9917076209546288</v>
+        <v>1.059211368426105</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033315981193084</v>
+        <v>1.037085085947829</v>
       </c>
       <c r="J13">
-        <v>0.9992330691870156</v>
+        <v>1.050538536021186</v>
       </c>
       <c r="K13">
-        <v>1.008662967954902</v>
+        <v>1.04624498333183</v>
       </c>
       <c r="L13">
-        <v>1.00228309709597</v>
+        <v>1.054421660709295</v>
       </c>
       <c r="M13">
-        <v>1.006950858682025</v>
+        <v>1.062728953156727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9696410934941658</v>
+        <v>1.044225411893696</v>
       </c>
       <c r="D14">
-        <v>0.9945448032044594</v>
+        <v>1.042853880152634</v>
       </c>
       <c r="E14">
-        <v>0.9882426533131214</v>
+        <v>1.051103071664931</v>
       </c>
       <c r="F14">
-        <v>0.9930833916064898</v>
+        <v>1.059455617623475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033741756715397</v>
+        <v>1.037141392202978</v>
       </c>
       <c r="J14">
-        <v>1.000371291648436</v>
+        <v>1.050735112848226</v>
       </c>
       <c r="K14">
-        <v>1.009587440066484</v>
+        <v>1.046399452622426</v>
       </c>
       <c r="L14">
-        <v>1.003407020127492</v>
+        <v>1.054618733688918</v>
       </c>
       <c r="M14">
-        <v>1.008154076365739</v>
+        <v>1.062941517825973</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9705771331820483</v>
+        <v>1.044384061003105</v>
       </c>
       <c r="D15">
-        <v>0.9952133104816511</v>
+        <v>1.042968778377017</v>
       </c>
       <c r="E15">
-        <v>0.9890369357997599</v>
+        <v>1.051244142798901</v>
       </c>
       <c r="F15">
-        <v>0.9939263788415614</v>
+        <v>1.059606087068953</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034002309456751</v>
+        <v>1.037176038355975</v>
       </c>
       <c r="J15">
-        <v>1.001068463650316</v>
+        <v>1.050856190105555</v>
       </c>
       <c r="K15">
-        <v>1.010153631709427</v>
+        <v>1.046494580806666</v>
       </c>
       <c r="L15">
-        <v>1.004095507808054</v>
+        <v>1.054740122154742</v>
       </c>
       <c r="M15">
-        <v>1.008891180674342</v>
+        <v>1.063072452914332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9759436376177321</v>
+        <v>1.045306987176702</v>
       </c>
       <c r="D16">
-        <v>0.9990490060692444</v>
+        <v>1.043637063360245</v>
       </c>
       <c r="E16">
-        <v>0.9935948708490185</v>
+        <v>1.052064909282095</v>
       </c>
       <c r="F16">
-        <v>0.9987639681277559</v>
+        <v>1.060481575215136</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035492404500495</v>
+        <v>1.037376993055359</v>
       </c>
       <c r="J16">
-        <v>1.005065359873329</v>
+        <v>1.051560302169916</v>
       </c>
       <c r="K16">
-        <v>1.013398723956529</v>
+        <v>1.047047577215144</v>
       </c>
       <c r="L16">
-        <v>1.008043721984205</v>
+        <v>1.055446129631349</v>
       </c>
       <c r="M16">
-        <v>1.013118831946383</v>
+        <v>1.06383405177526</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9792409543160822</v>
+        <v>1.045885497640717</v>
       </c>
       <c r="D17">
-        <v>1.001408198358769</v>
+        <v>1.044055848429578</v>
       </c>
       <c r="E17">
-        <v>0.9963988673729048</v>
+        <v>1.052579469804299</v>
       </c>
       <c r="F17">
-        <v>1.00174015637868</v>
+        <v>1.061030478635776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03640461506639</v>
+        <v>1.037502430751057</v>
       </c>
       <c r="J17">
-        <v>1.007520927781131</v>
+        <v>1.052001440345493</v>
       </c>
       <c r="K17">
-        <v>1.015391581726364</v>
+        <v>1.047393852280127</v>
       </c>
       <c r="L17">
-        <v>1.01047033348617</v>
+        <v>1.055888530635109</v>
       </c>
       <c r="M17">
-        <v>1.01571774299062</v>
+        <v>1.064311346874478</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9811404900686378</v>
+        <v>1.046222785263936</v>
       </c>
       <c r="D18">
-        <v>1.002768100928161</v>
+        <v>1.044299971442547</v>
       </c>
       <c r="E18">
-        <v>0.9980154049514428</v>
+        <v>1.052879503536771</v>
       </c>
       <c r="F18">
-        <v>1.003456021358907</v>
+        <v>1.06135055041825</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036928887890332</v>
+        <v>1.037575375046074</v>
       </c>
       <c r="J18">
-        <v>1.008935420755688</v>
+        <v>1.052258558549573</v>
       </c>
       <c r="K18">
-        <v>1.016539223800328</v>
+        <v>1.047595611982072</v>
       </c>
       <c r="L18">
-        <v>1.011868483248565</v>
+        <v>1.056146411999361</v>
       </c>
       <c r="M18">
-        <v>1.017215364842498</v>
+        <v>1.064589589799085</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9817842575754118</v>
+        <v>1.046337766796285</v>
       </c>
       <c r="D19">
-        <v>1.003229112762418</v>
+        <v>1.044383186239452</v>
       </c>
       <c r="E19">
-        <v>0.9985634598961693</v>
+        <v>1.052981790376487</v>
       </c>
       <c r="F19">
-        <v>1.004037761143651</v>
+        <v>1.061459670816172</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037106354694687</v>
+        <v>1.037600209666509</v>
       </c>
       <c r="J19">
-        <v>1.009414778680402</v>
+        <v>1.052346197110386</v>
       </c>
       <c r="K19">
-        <v>1.016928093803547</v>
+        <v>1.047664370198069</v>
       </c>
       <c r="L19">
-        <v>1.012342359202558</v>
+        <v>1.056234315280426</v>
       </c>
       <c r="M19">
-        <v>1.017722988297522</v>
+        <v>1.064684437284763</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9788896624818112</v>
+        <v>1.04582344427979</v>
       </c>
       <c r="D20">
-        <v>1.001156767668472</v>
+        <v>1.04401093201573</v>
       </c>
       <c r="E20">
-        <v>0.9961000076358317</v>
+        <v>1.052524272789261</v>
       </c>
       <c r="F20">
-        <v>1.001422937997244</v>
+        <v>1.060971596291837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036307557237065</v>
+        <v>1.037488995385638</v>
       </c>
       <c r="J20">
-        <v>1.007259326696863</v>
+        <v>1.05195413011016</v>
       </c>
       <c r="K20">
-        <v>1.015179307162718</v>
+        <v>1.047356722685737</v>
       </c>
       <c r="L20">
-        <v>1.010211782117981</v>
+        <v>1.055841082160398</v>
       </c>
       <c r="M20">
-        <v>1.015440812817074</v>
+        <v>1.064260153724488</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9691922366084658</v>
+        <v>1.044149578450846</v>
       </c>
       <c r="D21">
-        <v>0.9942242922603085</v>
+        <v>1.042798957217119</v>
       </c>
       <c r="E21">
-        <v>0.9878618496151681</v>
+        <v>1.051035642153273</v>
       </c>
       <c r="F21">
-        <v>0.992679240208056</v>
+        <v>1.059383696614035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033616749482716</v>
+        <v>1.037124820998022</v>
       </c>
       <c r="J21">
-        <v>1.000036977721565</v>
+        <v>1.050677234259528</v>
       </c>
       <c r="K21">
-        <v>1.009315919644491</v>
+        <v>1.046353974740938</v>
       </c>
       <c r="L21">
-        <v>1.003076890623265</v>
+        <v>1.054560707846963</v>
       </c>
       <c r="M21">
-        <v>1.007800646743704</v>
+        <v>1.06287892971788</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9628562552235392</v>
+        <v>1.043095769134394</v>
       </c>
       <c r="D22">
-        <v>0.9897040578813092</v>
+        <v>1.042035583974374</v>
       </c>
       <c r="E22">
-        <v>0.9824918287448796</v>
+        <v>1.050098733890086</v>
       </c>
       <c r="F22">
-        <v>0.9869801600920809</v>
+        <v>1.058384428969623</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03184791206458</v>
+        <v>1.036893843529409</v>
       </c>
       <c r="J22">
-        <v>0.9953179476462792</v>
+        <v>1.049872647756082</v>
       </c>
       <c r="K22">
-        <v>1.005482276377519</v>
+        <v>1.045721526496468</v>
       </c>
       <c r="L22">
-        <v>0.9984182919909785</v>
+        <v>1.053754174850071</v>
       </c>
       <c r="M22">
-        <v>1.002814031460238</v>
+        <v>1.062009062186423</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9662390278095393</v>
+        <v>1.043654547074526</v>
       </c>
       <c r="D23">
-        <v>0.9921164551291561</v>
+        <v>1.042440392630184</v>
       </c>
       <c r="E23">
-        <v>0.9853576334384549</v>
+        <v>1.050595498395286</v>
       </c>
       <c r="F23">
-        <v>0.9900215310876633</v>
+        <v>1.058914246285722</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032793257848357</v>
+        <v>1.03701647984357</v>
       </c>
       <c r="J23">
-        <v>0.9978373990590634</v>
+        <v>1.050299342127415</v>
       </c>
       <c r="K23">
-        <v>1.007529246393388</v>
+        <v>1.046056988431739</v>
       </c>
       <c r="L23">
-        <v>1.000905164120827</v>
+        <v>1.054181878236642</v>
       </c>
       <c r="M23">
-        <v>1.005475826789566</v>
+        <v>1.062470333533347</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9790484692206335</v>
+        <v>1.045851483979362</v>
       </c>
       <c r="D24">
-        <v>1.001270428192408</v>
+        <v>1.044031228265008</v>
       </c>
       <c r="E24">
-        <v>0.9962351079566742</v>
+        <v>1.052549214255971</v>
       </c>
       <c r="F24">
-        <v>1.001566337213985</v>
+        <v>1.060998202980229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036351437538873</v>
+        <v>1.037495066933158</v>
       </c>
       <c r="J24">
-        <v>1.007377587782083</v>
+        <v>1.051975508157149</v>
       </c>
       <c r="K24">
-        <v>1.01527527035916</v>
+        <v>1.047373500621019</v>
       </c>
       <c r="L24">
-        <v>1.010328663484195</v>
+        <v>1.055862522589706</v>
       </c>
       <c r="M24">
-        <v>1.015566001937753</v>
+        <v>1.064283286185358</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9929911273879356</v>
+        <v>1.048395137739023</v>
       </c>
       <c r="D25">
-        <v>1.011264389521187</v>
+        <v>1.045871543919771</v>
       </c>
       <c r="E25">
-        <v>1.00812006150003</v>
+        <v>1.054812461920956</v>
       </c>
       <c r="F25">
-        <v>1.014182625569288</v>
+        <v>1.063412841091094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040176815734543</v>
+        <v>1.038041761922937</v>
       </c>
       <c r="J25">
-        <v>1.017756692438319</v>
+        <v>1.053913162087667</v>
       </c>
       <c r="K25">
-        <v>1.023690321256398</v>
+        <v>1.048892754000793</v>
       </c>
       <c r="L25">
-        <v>1.020593618301034</v>
+        <v>1.057806415224203</v>
       </c>
       <c r="M25">
-        <v>1.026564692932675</v>
+        <v>1.066381046848879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_116/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050419571049633</v>
+        <v>1.003477927936819</v>
       </c>
       <c r="D2">
-        <v>1.047334886536162</v>
+        <v>1.018798224931277</v>
       </c>
       <c r="E2">
-        <v>1.05661466016842</v>
+        <v>1.017089630568731</v>
       </c>
       <c r="F2">
-        <v>1.065336006971663</v>
+        <v>1.02370612355445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038470868084027</v>
+        <v>1.043012614722709</v>
       </c>
       <c r="J2">
-        <v>1.055452823498969</v>
+        <v>1.025555110068863</v>
       </c>
       <c r="K2">
-        <v>1.050097812781029</v>
+        <v>1.030001738265853</v>
       </c>
       <c r="L2">
-        <v>1.059351886840596</v>
+        <v>1.028315905133703</v>
       </c>
       <c r="M2">
-        <v>1.068049522327009</v>
+        <v>1.034844785524145</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051887087344584</v>
+        <v>1.010770383710524</v>
       </c>
       <c r="D3">
-        <v>1.048394878751425</v>
+        <v>1.024044032859235</v>
       </c>
       <c r="E3">
-        <v>1.057921602330407</v>
+        <v>1.023342263800902</v>
       </c>
       <c r="F3">
-        <v>1.06673091686561</v>
+        <v>1.030346155944412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038778445179996</v>
+        <v>1.04495917111284</v>
       </c>
       <c r="J3">
-        <v>1.056567485010936</v>
+        <v>1.030971682124525</v>
       </c>
       <c r="K3">
-        <v>1.05096898477225</v>
+        <v>1.034378238198993</v>
       </c>
       <c r="L3">
-        <v>1.06047124802195</v>
+        <v>1.033684939571611</v>
       </c>
       <c r="M3">
-        <v>1.069258363041623</v>
+        <v>1.040604934857427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052835602104131</v>
+        <v>1.015353237968099</v>
       </c>
       <c r="D4">
-        <v>1.049079622230744</v>
+        <v>1.027342979743572</v>
       </c>
       <c r="E4">
-        <v>1.05876656877249</v>
+        <v>1.027278035818644</v>
       </c>
       <c r="F4">
-        <v>1.067632869009195</v>
+        <v>1.034526395174577</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038975630911724</v>
+        <v>1.046170234565228</v>
       </c>
       <c r="J4">
-        <v>1.057287264884252</v>
+        <v>1.034372196398184</v>
       </c>
       <c r="K4">
-        <v>1.051530953772042</v>
+        <v>1.037122229981794</v>
       </c>
       <c r="L4">
-        <v>1.061194290505423</v>
+        <v>1.037058019333252</v>
       </c>
       <c r="M4">
-        <v>1.07003938436981</v>
+        <v>1.044225237109087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053234108588681</v>
+        <v>1.01724911360933</v>
       </c>
       <c r="D5">
-        <v>1.049367218352626</v>
+        <v>1.028708145239617</v>
       </c>
       <c r="E5">
-        <v>1.059121626713343</v>
+        <v>1.028907661074496</v>
       </c>
       <c r="F5">
-        <v>1.068011899566101</v>
+        <v>1.036257395770374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03905808930625</v>
+        <v>1.046668238553617</v>
       </c>
       <c r="J5">
-        <v>1.057589510242754</v>
+        <v>1.035778050147804</v>
       </c>
       <c r="K5">
-        <v>1.051766792862529</v>
+        <v>1.038255774511318</v>
       </c>
       <c r="L5">
-        <v>1.061497960383681</v>
+        <v>1.038453101614514</v>
       </c>
       <c r="M5">
-        <v>1.070367447874068</v>
+        <v>1.045722928333898</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053301005151543</v>
+        <v>1.017565684645972</v>
       </c>
       <c r="D6">
-        <v>1.049415491271675</v>
+        <v>1.028936120759782</v>
       </c>
       <c r="E6">
-        <v>1.059181232906591</v>
+        <v>1.029179856124882</v>
       </c>
       <c r="F6">
-        <v>1.068075531805007</v>
+        <v>1.03654653257158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039071908759386</v>
+        <v>1.046751216401517</v>
       </c>
       <c r="J6">
-        <v>1.057640238165003</v>
+        <v>1.036012742973351</v>
       </c>
       <c r="K6">
-        <v>1.05180636717928</v>
+        <v>1.038444955047949</v>
       </c>
       <c r="L6">
-        <v>1.06154893058831</v>
+        <v>1.03868602961282</v>
       </c>
       <c r="M6">
-        <v>1.070422515016368</v>
+        <v>1.045973009387146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052840927938493</v>
+        <v>1.015378689371285</v>
       </c>
       <c r="D7">
-        <v>1.049083466161004</v>
+        <v>1.027361305025804</v>
       </c>
       <c r="E7">
-        <v>1.058771313720415</v>
+        <v>1.027299907328232</v>
       </c>
       <c r="F7">
-        <v>1.067637934217777</v>
+        <v>1.034549626652237</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038976734446124</v>
+        <v>1.046176932032147</v>
       </c>
       <c r="J7">
-        <v>1.057291304871773</v>
+        <v>1.034391073100357</v>
       </c>
       <c r="K7">
-        <v>1.05153410668299</v>
+        <v>1.037137453881282</v>
       </c>
       <c r="L7">
-        <v>1.06119834931968</v>
+        <v>1.037076749155216</v>
       </c>
       <c r="M7">
-        <v>1.070043769056651</v>
+        <v>1.044245343097665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050915749588486</v>
+        <v>1.00597168710163</v>
       </c>
       <c r="D8">
-        <v>1.047693354483374</v>
+        <v>1.020591545820465</v>
       </c>
       <c r="E8">
-        <v>1.057056497718347</v>
+        <v>1.019226403519329</v>
       </c>
       <c r="F8">
-        <v>1.065807560436635</v>
+        <v>1.025975159485449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038575196424498</v>
+        <v>1.043680804655788</v>
       </c>
       <c r="J8">
-        <v>1.055829837794783</v>
+        <v>1.02740807026538</v>
       </c>
       <c r="K8">
-        <v>1.050392591188771</v>
+        <v>1.031499632459913</v>
       </c>
       <c r="L8">
-        <v>1.059730443444195</v>
+        <v>1.030152089625735</v>
       </c>
       <c r="M8">
-        <v>1.068458302633665</v>
+        <v>1.036814410543814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047514894375465</v>
+        <v>0.9882671277845594</v>
       </c>
       <c r="D9">
-        <v>1.045234895650314</v>
+        <v>1.007875112802379</v>
       </c>
       <c r="E9">
-        <v>1.054029107566314</v>
+        <v>1.004088036689609</v>
       </c>
       <c r="F9">
-        <v>1.062577023048455</v>
+        <v>1.009902190735149</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037853503502916</v>
+        <v>1.038887097831614</v>
       </c>
       <c r="J9">
-        <v>1.05324300936773</v>
+        <v>1.014241117475772</v>
       </c>
       <c r="K9">
-        <v>1.048367639406063</v>
+        <v>1.020841700975014</v>
       </c>
       <c r="L9">
-        <v>1.057133972381478</v>
+        <v>1.017115134727922</v>
       </c>
       <c r="M9">
-        <v>1.065655272752547</v>
+        <v>1.022836629050689</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04524158976055</v>
+        <v>0.9755677189916236</v>
       </c>
       <c r="D10">
-        <v>1.043589716594611</v>
+        <v>0.9987801562339687</v>
       </c>
       <c r="E10">
-        <v>1.052006745230569</v>
+        <v>0.9932753623135965</v>
       </c>
       <c r="F10">
-        <v>1.060419530944579</v>
+        <v>0.9984248463654858</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037362787392534</v>
+        <v>1.035388238772269</v>
       </c>
       <c r="J10">
-        <v>1.051510423445233</v>
+        <v>1.004785392961987</v>
       </c>
       <c r="K10">
-        <v>1.047008415385327</v>
+        <v>1.013171470320793</v>
       </c>
       <c r="L10">
-        <v>1.055396111794411</v>
+        <v>1.007767103004878</v>
       </c>
       <c r="M10">
-        <v>1.063780091702193</v>
+        <v>1.012822599056753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04425569726348</v>
+        <v>0.969820092129238</v>
       </c>
       <c r="D11">
-        <v>1.042875814162632</v>
+        <v>0.9946726293396372</v>
       </c>
       <c r="E11">
-        <v>1.051130001098873</v>
+        <v>0.9883945270428197</v>
       </c>
       <c r="F11">
-        <v>1.059484340965872</v>
+        <v>0.9932445774795192</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037148008293797</v>
+        <v>1.033791596381656</v>
       </c>
       <c r="J11">
-        <v>1.050758226867596</v>
+        <v>1.000504611861566</v>
       </c>
       <c r="K11">
-        <v>1.046417613701292</v>
+        <v>1.009695716265551</v>
       </c>
       <c r="L11">
-        <v>1.054641906787763</v>
+        <v>1.003538675263343</v>
       </c>
       <c r="M11">
-        <v>1.062966513118142</v>
+        <v>1.008295025633189</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043889254436922</v>
+        <v>0.967644254372402</v>
       </c>
       <c r="D12">
-        <v>1.042610404919305</v>
+        <v>0.9931192247699349</v>
       </c>
       <c r="E12">
-        <v>1.050804176093073</v>
+        <v>0.9865489460292134</v>
       </c>
       <c r="F12">
-        <v>1.059136816112562</v>
+        <v>0.9912858542563774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037067883107864</v>
+        <v>1.033185317757392</v>
       </c>
       <c r="J12">
-        <v>1.050478525326045</v>
+        <v>0.9988840224024812</v>
       </c>
       <c r="K12">
-        <v>1.046197821646438</v>
+        <v>1.008379447610709</v>
       </c>
       <c r="L12">
-        <v>1.05436150078925</v>
+        <v>1.001938465307764</v>
       </c>
       <c r="M12">
-        <v>1.06266406589046</v>
+        <v>1.006581929718331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043967868580332</v>
+        <v>0.968112892436802</v>
       </c>
       <c r="D13">
-        <v>1.04266734676674</v>
+        <v>0.9934537273081121</v>
       </c>
       <c r="E13">
-        <v>1.050874074140893</v>
+        <v>0.9869463534809213</v>
       </c>
       <c r="F13">
-        <v>1.059211368426105</v>
+        <v>0.9917076209546285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037085085947829</v>
+        <v>1.033315981193084</v>
       </c>
       <c r="J13">
-        <v>1.050538536021186</v>
+        <v>0.9992330691870153</v>
       </c>
       <c r="K13">
-        <v>1.04624498333183</v>
+        <v>1.008662967954902</v>
       </c>
       <c r="L13">
-        <v>1.054421660709295</v>
+        <v>1.00228309709597</v>
       </c>
       <c r="M13">
-        <v>1.062728953156727</v>
+        <v>1.006950858682024</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044225411893696</v>
+        <v>0.9696410934941662</v>
       </c>
       <c r="D14">
-        <v>1.042853880152634</v>
+        <v>0.9945448032044593</v>
       </c>
       <c r="E14">
-        <v>1.051103071664931</v>
+        <v>0.9882426533131213</v>
       </c>
       <c r="F14">
-        <v>1.059455617623475</v>
+        <v>0.99308339160649</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037141392202978</v>
+        <v>1.033741756715397</v>
       </c>
       <c r="J14">
-        <v>1.050735112848226</v>
+        <v>1.000371291648436</v>
       </c>
       <c r="K14">
-        <v>1.046399452622426</v>
+        <v>1.009587440066484</v>
       </c>
       <c r="L14">
-        <v>1.054618733688918</v>
+        <v>1.003407020127492</v>
       </c>
       <c r="M14">
-        <v>1.062941517825973</v>
+        <v>1.008154076365739</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044384061003105</v>
+        <v>0.9705771331820485</v>
       </c>
       <c r="D15">
-        <v>1.042968778377017</v>
+        <v>0.9952133104816512</v>
       </c>
       <c r="E15">
-        <v>1.051244142798901</v>
+        <v>0.9890369357997602</v>
       </c>
       <c r="F15">
-        <v>1.059606087068953</v>
+        <v>0.9939263788415618</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037176038355975</v>
+        <v>1.034002309456751</v>
       </c>
       <c r="J15">
-        <v>1.050856190105555</v>
+        <v>1.001068463650316</v>
       </c>
       <c r="K15">
-        <v>1.046494580806666</v>
+        <v>1.010153631709427</v>
       </c>
       <c r="L15">
-        <v>1.054740122154742</v>
+        <v>1.004095507808055</v>
       </c>
       <c r="M15">
-        <v>1.063072452914332</v>
+        <v>1.008891180674342</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045306987176702</v>
+        <v>0.9759436376177333</v>
       </c>
       <c r="D16">
-        <v>1.043637063360245</v>
+        <v>0.9990490060692455</v>
       </c>
       <c r="E16">
-        <v>1.052064909282095</v>
+        <v>0.9935948708490198</v>
       </c>
       <c r="F16">
-        <v>1.060481575215136</v>
+        <v>0.998763968127757</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037376993055359</v>
+        <v>1.035492404500495</v>
       </c>
       <c r="J16">
-        <v>1.051560302169916</v>
+        <v>1.00506535987333</v>
       </c>
       <c r="K16">
-        <v>1.047047577215144</v>
+        <v>1.01339872395653</v>
       </c>
       <c r="L16">
-        <v>1.055446129631349</v>
+        <v>1.008043721984206</v>
       </c>
       <c r="M16">
-        <v>1.06383405177526</v>
+        <v>1.013118831946384</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045885497640717</v>
+        <v>0.9792409543160822</v>
       </c>
       <c r="D17">
-        <v>1.044055848429578</v>
+        <v>1.001408198358769</v>
       </c>
       <c r="E17">
-        <v>1.052579469804299</v>
+        <v>0.9963988673729045</v>
       </c>
       <c r="F17">
-        <v>1.061030478635776</v>
+        <v>1.001740156378679</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037502430751057</v>
+        <v>1.03640461506639</v>
       </c>
       <c r="J17">
-        <v>1.052001440345493</v>
+        <v>1.007520927781131</v>
       </c>
       <c r="K17">
-        <v>1.047393852280127</v>
+        <v>1.015391581726364</v>
       </c>
       <c r="L17">
-        <v>1.055888530635109</v>
+        <v>1.01047033348617</v>
       </c>
       <c r="M17">
-        <v>1.064311346874478</v>
+        <v>1.015717742990619</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046222785263936</v>
+        <v>0.9811404900686364</v>
       </c>
       <c r="D18">
-        <v>1.044299971442547</v>
+        <v>1.00276810092816</v>
       </c>
       <c r="E18">
-        <v>1.052879503536771</v>
+        <v>0.9980154049514416</v>
       </c>
       <c r="F18">
-        <v>1.06135055041825</v>
+        <v>1.003456021358905</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037575375046074</v>
+        <v>1.036928887890331</v>
       </c>
       <c r="J18">
-        <v>1.052258558549573</v>
+        <v>1.008935420755687</v>
       </c>
       <c r="K18">
-        <v>1.047595611982072</v>
+        <v>1.016539223800327</v>
       </c>
       <c r="L18">
-        <v>1.056146411999361</v>
+        <v>1.011868483248564</v>
       </c>
       <c r="M18">
-        <v>1.064589589799085</v>
+        <v>1.017215364842497</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046337766796285</v>
+        <v>0.981784257575413</v>
       </c>
       <c r="D19">
-        <v>1.044383186239452</v>
+        <v>1.003229112762419</v>
       </c>
       <c r="E19">
-        <v>1.052981790376487</v>
+        <v>0.9985634598961705</v>
       </c>
       <c r="F19">
-        <v>1.061459670816172</v>
+        <v>1.004037761143652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037600209666509</v>
+        <v>1.037106354694687</v>
       </c>
       <c r="J19">
-        <v>1.052346197110386</v>
+        <v>1.009414778680404</v>
       </c>
       <c r="K19">
-        <v>1.047664370198069</v>
+        <v>1.016928093803548</v>
       </c>
       <c r="L19">
-        <v>1.056234315280426</v>
+        <v>1.012342359202559</v>
       </c>
       <c r="M19">
-        <v>1.064684437284763</v>
+        <v>1.017722988297523</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04582344427979</v>
+        <v>0.9788896624818114</v>
       </c>
       <c r="D20">
-        <v>1.04401093201573</v>
+        <v>1.001156767668472</v>
       </c>
       <c r="E20">
-        <v>1.052524272789261</v>
+        <v>0.9961000076358318</v>
       </c>
       <c r="F20">
-        <v>1.060971596291837</v>
+        <v>1.001422937997244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037488995385638</v>
+        <v>1.036307557237065</v>
       </c>
       <c r="J20">
-        <v>1.05195413011016</v>
+        <v>1.007259326696863</v>
       </c>
       <c r="K20">
-        <v>1.047356722685737</v>
+        <v>1.015179307162718</v>
       </c>
       <c r="L20">
-        <v>1.055841082160398</v>
+        <v>1.010211782117981</v>
       </c>
       <c r="M20">
-        <v>1.064260153724488</v>
+        <v>1.015440812817074</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044149578450846</v>
+        <v>0.9691922366084669</v>
       </c>
       <c r="D21">
-        <v>1.042798957217119</v>
+        <v>0.9942242922603095</v>
       </c>
       <c r="E21">
-        <v>1.051035642153273</v>
+        <v>0.987861849615169</v>
       </c>
       <c r="F21">
-        <v>1.059383696614035</v>
+        <v>0.992679240208057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037124820998022</v>
+        <v>1.033616749482717</v>
       </c>
       <c r="J21">
-        <v>1.050677234259528</v>
+        <v>1.000036977721566</v>
       </c>
       <c r="K21">
-        <v>1.046353974740938</v>
+        <v>1.009315919644492</v>
       </c>
       <c r="L21">
-        <v>1.054560707846963</v>
+        <v>1.003076890623266</v>
       </c>
       <c r="M21">
-        <v>1.06287892971788</v>
+        <v>1.007800646743705</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043095769134394</v>
+        <v>0.9628562552235395</v>
       </c>
       <c r="D22">
-        <v>1.042035583974374</v>
+        <v>0.9897040578813094</v>
       </c>
       <c r="E22">
-        <v>1.050098733890086</v>
+        <v>0.9824918287448795</v>
       </c>
       <c r="F22">
-        <v>1.058384428969623</v>
+        <v>0.9869801600920808</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036893843529409</v>
+        <v>1.03184791206458</v>
       </c>
       <c r="J22">
-        <v>1.049872647756082</v>
+        <v>0.9953179476462795</v>
       </c>
       <c r="K22">
-        <v>1.045721526496468</v>
+        <v>1.00548227637752</v>
       </c>
       <c r="L22">
-        <v>1.053754174850071</v>
+        <v>0.9984182919909785</v>
       </c>
       <c r="M22">
-        <v>1.062009062186423</v>
+        <v>1.002814031460238</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043654547074526</v>
+        <v>0.9662390278095384</v>
       </c>
       <c r="D23">
-        <v>1.042440392630184</v>
+        <v>0.9921164551291556</v>
       </c>
       <c r="E23">
-        <v>1.050595498395286</v>
+        <v>0.985357633438454</v>
       </c>
       <c r="F23">
-        <v>1.058914246285722</v>
+        <v>0.9900215310876624</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03701647984357</v>
+        <v>1.032793257848357</v>
       </c>
       <c r="J23">
-        <v>1.050299342127415</v>
+        <v>0.9978373990590625</v>
       </c>
       <c r="K23">
-        <v>1.046056988431739</v>
+        <v>1.007529246393388</v>
       </c>
       <c r="L23">
-        <v>1.054181878236642</v>
+        <v>1.000905164120826</v>
       </c>
       <c r="M23">
-        <v>1.062470333533347</v>
+        <v>1.005475826789565</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045851483979362</v>
+        <v>0.9790484692206334</v>
       </c>
       <c r="D24">
-        <v>1.044031228265008</v>
+        <v>1.001270428192407</v>
       </c>
       <c r="E24">
-        <v>1.052549214255971</v>
+        <v>0.996235107956674</v>
       </c>
       <c r="F24">
-        <v>1.060998202980229</v>
+        <v>1.001566337213984</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037495066933158</v>
+        <v>1.036351437538872</v>
       </c>
       <c r="J24">
-        <v>1.051975508157149</v>
+        <v>1.007377587782083</v>
       </c>
       <c r="K24">
-        <v>1.047373500621019</v>
+        <v>1.015275270359159</v>
       </c>
       <c r="L24">
-        <v>1.055862522589706</v>
+        <v>1.010328663484195</v>
       </c>
       <c r="M24">
-        <v>1.064283286185358</v>
+        <v>1.015566001937752</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048395137739023</v>
+        <v>0.9929911273879356</v>
       </c>
       <c r="D25">
-        <v>1.045871543919771</v>
+        <v>1.011264389521186</v>
       </c>
       <c r="E25">
-        <v>1.054812461920956</v>
+        <v>1.00812006150003</v>
       </c>
       <c r="F25">
-        <v>1.063412841091094</v>
+        <v>1.014182625569287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038041761922937</v>
+        <v>1.040176815734543</v>
       </c>
       <c r="J25">
-        <v>1.053913162087667</v>
+        <v>1.017756692438319</v>
       </c>
       <c r="K25">
-        <v>1.048892754000793</v>
+        <v>1.023690321256398</v>
       </c>
       <c r="L25">
-        <v>1.057806415224203</v>
+        <v>1.020593618301034</v>
       </c>
       <c r="M25">
-        <v>1.066381046848879</v>
+        <v>1.026564692932675</v>
       </c>
     </row>
   </sheetData>
